--- a/HK_Dataz.xlsx
+++ b/HK_Dataz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jasper Operio</t>
+          <t>jasper operio</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>04-2122-098898</t>
+          <t>04-2122-000003</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Robert Hidalgo</t>
+          <t>Ryan Mallorca</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -845,36 +845,6 @@
         </is>
       </c>
       <c r="F14" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>04-2122-000003</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Ryan Mallorca</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>180h 0m</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
         <is>
           <t>pending</t>
         </is>

--- a/HK_Dataz.xlsx
+++ b/HK_Dataz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jasper Operio</t>
+          <t>jasper operio</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>40m</t>
+          <t>1m</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>179h 17m</t>
+          <t>0h 0m</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>Complete</t>
         </is>
       </c>
     </row>
@@ -826,12 +826,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>04-2122-098898</t>
+          <t>04-2122-000003</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Robert Hidalgo</t>
+          <t>Ryan Mallorca</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -845,36 +845,6 @@
         </is>
       </c>
       <c r="F14" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>04-2122-000003</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Ryan Mallorca</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>180h 0m</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
         <is>
           <t>pending</t>
         </is>

--- a/HK_Dataz.xlsx
+++ b/HK_Dataz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>STATUS</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>DEPARTENT</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -466,12 +471,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>02-2387-700001</t>
+          <t>04-2122-045729</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Carmelo Flame</t>
+          <t>Abegail Pang-al</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,6 +492,11 @@
       <c r="F2" t="inlineStr">
         <is>
           <t>pending</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>CITE</t>
         </is>
       </c>
     </row>
@@ -496,12 +506,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>04-2200-90001</t>
+          <t>04-1920-02832</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dionard Antioquia</t>
+          <t xml:space="preserve">
+Addie Gaytano</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -517,6 +528,11 @@
       <c r="F3" t="inlineStr">
         <is>
           <t>pending</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>COE</t>
         </is>
       </c>
     </row>
@@ -526,12 +542,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>04-2122-000002</t>
+          <t>04-2120-02883</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Donna Mallorca</t>
+          <t>Adrian Quia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -547,6 +563,11 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>pending</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>COE</t>
         </is>
       </c>
     </row>
@@ -556,12 +577,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>04-2122-000001</t>
+          <t>04-2122-59333</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>jasper operio</t>
+          <t>Albina Sacapno</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -577,6 +598,11 @@
       <c r="F5" t="inlineStr">
         <is>
           <t>pending</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>CAHS</t>
         </is>
       </c>
     </row>
@@ -586,12 +612,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>04-2122-78627</t>
+          <t>04-2122-54863</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wolf Javelosa </t>
+          <t>Rochielle Alde</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -607,6 +633,11 @@
       <c r="F6" t="inlineStr">
         <is>
           <t>pending</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>CAHS</t>
         </is>
       </c>
     </row>
@@ -616,12 +647,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>04-2122-91734</t>
+          <t>04-2122-85249</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jemima Mariano</t>
+          <t>Alden Richard</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,6 +668,11 @@
       <c r="F7" t="inlineStr">
         <is>
           <t>pending</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>COME</t>
         </is>
       </c>
     </row>
@@ -646,12 +682,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>04-2002-90021</t>
+          <t>04-2120-02863</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Justiene Susal</t>
+          <t>Alex Gonzaga</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -667,6 +703,11 @@
       <c r="F8" t="inlineStr">
         <is>
           <t>pending</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>COE</t>
         </is>
       </c>
     </row>
@@ -676,12 +717,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>04-2122-035512</t>
+          <t>04-1920-02436</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Karen May Gaytano</t>
+          <t>Aljur Abrenica</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,6 +738,11 @@
       <c r="F9" t="inlineStr">
         <is>
           <t>pending</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>CCJE</t>
         </is>
       </c>
     </row>
@@ -706,12 +752,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>04-2122-035546</t>
+          <t>04-1920-04593</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Kayle Pama</t>
+          <t>Ridjez Jhann  Almazora</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -727,6 +773,11 @@
       <c r="F10" t="inlineStr">
         <is>
           <t>pending</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>COM</t>
         </is>
       </c>
     </row>
@@ -736,12 +787,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>09-2155-90828</t>
+          <t>04-2122-14479</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Malorena Amante</t>
+          <t>Alonzo Muhlach</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -757,6 +808,11 @@
       <c r="F11" t="inlineStr">
         <is>
           <t>pending</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>CITE</t>
         </is>
       </c>
     </row>
@@ -766,12 +822,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>04-1234-87237</t>
+          <t>04-2122-14659</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Alessandra Pechera</t>
+          <t>Alyssa Valdez</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -787,6 +843,11 @@
       <c r="F12" t="inlineStr">
         <is>
           <t>pending</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>CITE</t>
         </is>
       </c>
     </row>
@@ -796,27 +857,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>04-2122-031572</t>
+          <t>04-2122-032809</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Reuben Mallorca</t>
+          <t>Argie Amaquin</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1m</t>
+          <t>0m</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0h 0m</t>
+          <t>180h 0m</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>COM</t>
         </is>
       </c>
     </row>
@@ -826,27 +892,4487 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t xml:space="preserve">04-2122-034305	</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Arvie Ann Anam</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>COM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">04-2122-031370	</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Jolyn Anaud</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>COM</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>04-2122-59343</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Andrew Sacapano</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>CAHS</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">04-1617-05234	</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Dionard Antioquia</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>COM</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">04-2021-02572	</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Kim Raxamm Aragorat</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>COM</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>04-1920-02837</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Arthur Nery</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>COE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>04-2122-52863</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Belen Gregorio</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>CAHS</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>04-2122-030617</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Bernadeth Alfonso</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>COM</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>04-2122-032061</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Rona Mae Biboso</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>COM</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>04-2120-02963</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Bonnie Onnie</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>COE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>04-2122-59433</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Gem Mariano</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>CAHS</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>04-2122-031410</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Sean Carlo Bunagan</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>COM</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>04-1617-01658</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ai Xylnn Buslon</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>COM</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>04-2122-034824</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Allyna Treyes Calatana</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>COM</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>04-1516-01987</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Joepeth Capanang</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>COM</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>04-1920-02635</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Carl Justin Adrias</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>COM</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>04-2122-034271</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Carl Anthony Capanang</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>COM</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>02-2387-700001</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Carmelo Flame</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>COME</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>04-1819-04346</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Eden Kervie Castor</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>COM</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>04-2122-88349</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Charles  Coning</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>COME</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>04-2122-14459</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Cj Delos Dez</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>CITE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>04-2220-01831</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Clarie Sivana</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAHS
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>04-1920-02833</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Kollin Carson</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>COE</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>04-1819-05025</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Eddie Cornel</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>COM</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>04-1920-02843</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Cristine Gabinete</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>COE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>04-1920-04232</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Eljohn Ray Dacalos</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>COM</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>04-2231-01836</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Daisy Lamboya</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>CITE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>04-1920-02636</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Daniel Padilla</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>CCJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>04-2122-14739</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Daren Gado</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>COME</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>04-2122-14569</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Dave Ildefonso</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>CITE</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>04-2122-035939</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>David Patricio</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>COME</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>04-2122-000002</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Donna Mallorca</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>COM</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>04-1920-04122</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Edwin Jaytano</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>CCJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>04-2122-033129</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>John Carl Eleferia</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>COM</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>04-2122-24839</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Elmo Luces</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>COME</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>04-2122-001010</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Farah Embon</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>COM</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>04-2210-01831</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Emie Gidote</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>CAHS</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>04-1920-01222</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Enrico Soriano</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>CCJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>04-1920-02446</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Enrique Gil</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>CCJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>04-1920-02632</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Faith Nazareno</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>CCJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	
+04-1920-02832</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Flor Bacusa</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+CAHS</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>04-2122-25939</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Glendale Pandinio</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>COME</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>04-2122-24939</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Jake Sastre</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>COME</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>04-1920-02222</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>James Bond</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>CCJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>04-1920-02422</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>James Reid</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>CCJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>04-2231-51836</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Janela Huam</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>CITE</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>04-2122-000001</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Jasper Operio</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>CITE</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>04-2122-78627</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wolf Javelosa </t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>CCJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>04-2122-045839</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Jayar Pagsagan</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>COME</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>04-2122-13479</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Jc Delos Santos</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>CITE</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>04-2122-14759</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Jema Galanza</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>CITE</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>04-2122-034719</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Jennifer Perez</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>CITE</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>04-2211-01831</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Jernie Ortega</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>CITE</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>04-2122-14839</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Jhonrei Sacapano</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>COME</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>04-2122-91734</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Jemima Mariano</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>CAHS</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>04-2122-035338</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Jose Jimanga</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>COED</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>04-1920-04312</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Missy Jimenez</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>COED</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>04-2122-54643</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Jocel Overio</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>CAHS</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>04-2231-01832</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Jocel Espena</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>CITE</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>04-2121-02968</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Jolina Magdangal</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>COE</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>04-2122-23939</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Jomel Flores</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>COME</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>04-2002-90021</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Justiene Susal</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>COE</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>04-2122-035512</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Karen May Gaytano</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>CITE</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>04-2122-145859</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Kenneth Tio</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>CITE</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>04-2122-88249</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Kiana Coning</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>COME</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>04-1920-02836</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Kiddie Santos</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>COE</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>04-1920-04442</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Kim Gonzaga</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>CCJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>04-2122-145829</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Kimmy Dionasa</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>CITE</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>04-1920-04342</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Kingston Gobaga</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>CCJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>04-1920-02432</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Kurts Panganiban</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>CCJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>04-2122-035546</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Kyle Francis Pama</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>CAHS</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>04-2122-031565</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Karen Joy Legario</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>COM</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>04-2122-035839</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Leoandro Bondo</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>COME</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>04-2122-032560</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Hazel Luna</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>COM</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>09-2155-90828</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Malorena Amante</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>COE</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>04-1920-04222</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Mark Gaytano</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>CCJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>04-2122-35249</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Marko Huston</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>COME</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>04-2121-02963</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Marvin Agustin</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>COE</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>04-2122-59533</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Maxine Medina</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>CAHS</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>04-1920-02883</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Meg Solanoy</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>COE</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>04-2122-59534</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Mic Villacorte</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>CAHS</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>04-2122-145729</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Miccay Pang-al</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>CITE</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>04-2122-031653</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Marc Dave Nakpil</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>COM</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>04-2122-02963</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Nick Villanueva</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>COE</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>04-1920-02532</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Nicole Parel</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>CCJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>04-2122-035729</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Novie Galliano</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>CITE</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>04-2122-030723</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Richen Nulada</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>COA</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>04-2122-88649</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Omar Coning</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>COME</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>04-2122-032086</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Benz Palaez</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>COA</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>04-2122-030506</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Doji Parejas</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>COA</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>04-2122-033804</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Eunice Paulino</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>COA</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>04-1234-87237</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Alessandra Pechera</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>COME</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>04-2122-54943</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Pia Casidsid</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>CAHS</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>04-2122-15479</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Queenie Delos Reyes</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>CITE</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>04-2122-25949</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Ralph Susang</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>COME</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>04-2122-02863</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Randy Santiago</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>COE</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>04-2122-031572</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Reuben Mallorca</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>0h 0m</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>CITE</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>04-1920-03635</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Regine Onatyag</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>CCJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>04-1920-02839</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Rico Blangko</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>COE</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>04-2122-59323</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Rjames Meren</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>CAHS</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>04-2121-32963</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Robert Guillano</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>COE</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>04-2122-031574</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Mark Angelo Rodriguez</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>COA</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>04-2220-02832</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Romely Manuel</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>CAHS</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>04-2220-02831</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Ronalyn Haylo</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>CAHS</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
           <t>04-2122-000003</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>Ryan Mallorca</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>180h 0m</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>pending</t>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>COED</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>04-2122-031327</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Eric Salaya</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>COA</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>04-1920-01024</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Daniel Salacion</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>COA</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>04-2122-035251</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Dj Mae Santillana</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>COA</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>04-2122-032649</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Jhon Rey Sarona</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>COA</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>04-2122-034238</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Stephanie Seblante</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>COA</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>04-2122-001443</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Angela Segovia</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>COED</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>04-2122-54963</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Shane Hamasa</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>CAHS</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>04-2122-14469</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Shaun Ildefonso</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>CITE</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>04-2122-034729</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Shiela Flores</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>CITE</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>04-2122-034222</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Jyseth Sibidong</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>COA</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>04-2122-035230</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Justine Carl Sicatin</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>COED</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>04-2122-034150</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Davien Siva</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>COED</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>04-1920-01489</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Jhon Rey Sumbe</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>COED</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>04-1920-00805</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Mary Grace Tabarnero</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>COED</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>04-2122-001114</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Romea Tahum</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>COED</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>04-2122-045739</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Tim Marquez</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>COME</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>04-1920-01843</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tin Labindao
+</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>COE</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>04-1920-02736</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Tony Labrosca
+</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>CCJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>04-2122-145869</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Tyler Chou</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>CITE</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>04-2122-034379</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Mylene Velasco</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>COED</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>04-2122-030973</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>James Mathew Villanueva</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>COED</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>04-2122-58343</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Zach Fernandez</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>CAHS</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>04-2122-25249</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Zember Pantia</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>180h 0m</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>COME</t>
         </is>
       </c>
     </row>
